--- a/students.xlsx
+++ b/students.xlsx
@@ -11,6 +11,59 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Ism</t>
+  </si>
+  <si>
+    <t>Modme_id</t>
+  </si>
+  <si>
+    <t>tel_nomer</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>Dias Djumabayev</t>
+  </si>
+  <si>
+    <t>90-988-46-73</t>
+  </si>
+  <si>
+    <t>Mansur Muxtorov</t>
+  </si>
+  <si>
+    <t>97-494-46-36</t>
+  </si>
+  <si>
+    <t>Bekzod Xotamov</t>
+  </si>
+  <si>
+    <t>97-115-53-00</t>
+  </si>
+  <si>
+    <t>Maqsud Odilxo`jayev</t>
+  </si>
+  <si>
+    <t>93-070-46-16</t>
+  </si>
+  <si>
+    <t>Javoxir Maqsudov</t>
+  </si>
+  <si>
+    <t>99-852-6943</t>
+  </si>
+  <si>
+    <t>Maryambonu Mirzayeva</t>
+  </si>
+  <si>
+    <t>90-321-8003</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,17 +996,115 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2">
         <v>642181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>457658</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>335935</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>564850</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>359725</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>336845</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">

--- a/students.xlsx
+++ b/students.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
